--- a/Data/products.xlsx
+++ b/Data/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT-24\HK241\ĐỒ ÁN KTDL\GEAR STORE\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT-24\HK241\ĐỒ ÁN KTDL\GEAR STORE\GEAR STORE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC815883-F528-4A06-B24B-2CDAA21498DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258C028D-2501-4A29-84C1-51AF9F4FC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản phẩm" sheetId="1" r:id="rId1"/>
@@ -27,39 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="316">
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã sản phẩm</t>
-  </si>
-  <si>
-    <t>Giá gốc</t>
-  </si>
-  <si>
-    <t>Nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Tồn kho</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm</t>
-  </si>
-  <si>
-    <t>Công dụng</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Loại xe sử dụng</t>
-  </si>
-  <si>
-    <t>ĐVT</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>V-9333</t>
   </si>
   <si>
@@ -969,10 +936,43 @@
     <t>Vỏ có gai mắt xích và thay cho bánh sau</t>
   </si>
   <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Price</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>BasePrice</t>
+  </si>
+  <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>InStock</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Desciption</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1177,19 +1177,19 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:M101">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mã sản phẩm"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Giá gốc"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nhà cung cấp"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tồn kho"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Loại sản phẩm"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Công dụng"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Mô tả"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Loại xe sử dụng"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ĐVT"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Ghi chú"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ProductID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ProductName"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BasePrice"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SalePrice"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Supplier"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="InStock"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Category"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Usage"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Desciption"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Vehicle"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Unit"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="Sản phẩm-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1419,43 +1419,43 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1476,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>255000</v>
@@ -1488,25 +1488,25 @@
         <v>270000</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G2" s="5">
         <v>100</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -1515,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6">
         <v>240000</v>
@@ -1527,25 +1527,25 @@
         <v>265000</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5">
         <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M3" s="5"/>
     </row>
@@ -1554,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
         <v>225000</v>
@@ -1566,25 +1566,25 @@
         <v>250000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -1593,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6">
         <v>280000</v>
@@ -1605,25 +1605,25 @@
         <v>300000</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5">
         <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M5" s="5"/>
     </row>
@@ -1632,10 +1632,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6">
         <v>31000</v>
@@ -1644,25 +1644,25 @@
         <v>35000</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5">
         <v>250</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M6" s="5"/>
     </row>
@@ -1671,10 +1671,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
         <v>22000</v>
@@ -1683,25 +1683,25 @@
         <v>25000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5">
         <v>1000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -1710,10 +1710,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6">
         <v>170000</v>
@@ -1722,25 +1722,25 @@
         <v>185000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5">
         <v>100</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -1749,10 +1749,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6">
         <v>37000</v>
@@ -1761,25 +1761,25 @@
         <v>42000</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5">
         <v>200</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M9" s="5"/>
     </row>
@@ -1788,10 +1788,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6">
         <v>170000</v>
@@ -1800,25 +1800,25 @@
         <v>185000</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5">
         <v>85</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M10" s="5"/>
     </row>
@@ -1827,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6">
         <v>80000</v>
@@ -1839,28 +1839,28 @@
         <v>85000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G11" s="5">
         <v>1200</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1868,10 +1868,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6">
         <v>85000</v>
@@ -1880,28 +1880,28 @@
         <v>95000</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G12" s="5">
         <v>1000</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1909,10 +1909,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" s="6">
         <v>70000</v>
@@ -1921,28 +1921,28 @@
         <v>75000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5">
         <v>600</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1950,10 +1950,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6">
         <v>105000</v>
@@ -1962,25 +1962,25 @@
         <v>120000</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G14" s="5">
         <v>30</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M14" s="5"/>
     </row>
@@ -1989,10 +1989,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6">
         <v>115000</v>
@@ -2001,25 +2001,25 @@
         <v>130000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G15" s="5">
         <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M15" s="5"/>
     </row>
@@ -2028,10 +2028,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6">
         <v>150000</v>
@@ -2040,25 +2040,25 @@
         <v>160000</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G16" s="5">
         <v>50</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M16" s="5"/>
     </row>
@@ -2067,10 +2067,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D17" s="6">
         <v>100000</v>
@@ -2079,25 +2079,25 @@
         <v>115000</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G17" s="5">
         <v>50</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M17" s="5"/>
     </row>
@@ -2106,10 +2106,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6">
         <v>135000</v>
@@ -2118,25 +2118,25 @@
         <v>145000</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G18" s="5">
         <v>45</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M18" s="5"/>
     </row>
@@ -2145,10 +2145,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6">
         <v>150000</v>
@@ -2157,25 +2157,25 @@
         <v>160000</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G19" s="5">
         <v>50</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M19" s="5"/>
     </row>
@@ -2184,10 +2184,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6">
         <v>100000</v>
@@ -2196,25 +2196,25 @@
         <v>115000</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G20" s="5">
         <v>50</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M20" s="5"/>
     </row>
@@ -2223,10 +2223,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6">
         <v>125000</v>
@@ -2235,25 +2235,25 @@
         <v>145000</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G21" s="5">
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M21" s="5"/>
     </row>
@@ -2262,10 +2262,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6">
         <v>105000</v>
@@ -2274,25 +2274,25 @@
         <v>120000</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G22" s="5">
         <v>30</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -2301,10 +2301,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6">
         <v>150000</v>
@@ -2313,25 +2313,25 @@
         <v>175000</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G23" s="5">
         <v>10</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M23" s="5"/>
     </row>
@@ -2340,10 +2340,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6">
         <v>580000</v>
@@ -2352,25 +2352,25 @@
         <v>635000</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G24" s="5">
         <v>10</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M24" s="5"/>
     </row>
@@ -2379,10 +2379,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D25" s="6">
         <v>22000</v>
@@ -2391,25 +2391,25 @@
         <v>25000</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G25" s="5">
         <v>1000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M25" s="5"/>
     </row>
@@ -2418,10 +2418,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D26" s="6">
         <v>22000</v>
@@ -2430,25 +2430,25 @@
         <v>25000</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G26" s="5">
         <v>1000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -2457,10 +2457,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D27" s="6">
         <v>22000</v>
@@ -2469,25 +2469,25 @@
         <v>25000</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G27" s="5">
         <v>1000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M27" s="5"/>
     </row>
@@ -2496,10 +2496,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D28" s="6">
         <v>115000</v>
@@ -2508,28 +2508,28 @@
         <v>125000</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G28" s="5">
         <v>500</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2537,10 +2537,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D29" s="6">
         <v>95000</v>
@@ -2549,25 +2549,25 @@
         <v>110000</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G29" s="5">
         <v>20</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M29" s="5"/>
     </row>
@@ -2576,10 +2576,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D30" s="6">
         <v>100000</v>
@@ -2588,25 +2588,25 @@
         <v>110000</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G30" s="5">
         <v>100</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D31" s="6">
         <v>150000</v>
@@ -2627,25 +2627,25 @@
         <v>160000</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G31" s="5">
         <v>50</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M31" s="5"/>
     </row>
@@ -2654,10 +2654,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D32" s="6">
         <v>100000</v>
@@ -2666,25 +2666,25 @@
         <v>115000</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G32" s="5">
         <v>50</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M32" s="5"/>
     </row>
@@ -2693,10 +2693,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D33" s="6">
         <v>105000</v>
@@ -2705,28 +2705,28 @@
         <v>120000</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G33" s="5">
         <v>550</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2734,10 +2734,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D34" s="6">
         <v>255000</v>
@@ -2746,25 +2746,25 @@
         <v>275000</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G34" s="5">
         <v>20</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M34" s="5"/>
     </row>
@@ -2773,10 +2773,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D35" s="6">
         <v>275000</v>
@@ -2785,25 +2785,25 @@
         <v>295000</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5">
         <v>20</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M35" s="5"/>
     </row>
@@ -2812,10 +2812,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D36" s="6">
         <v>195000</v>
@@ -2824,25 +2824,25 @@
         <v>215000</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G36" s="5">
         <v>30</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M36" s="5"/>
     </row>
@@ -2851,10 +2851,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D37" s="6">
         <v>115000</v>
@@ -2863,25 +2863,25 @@
         <v>125000</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G37" s="5">
         <v>50</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M37" s="5"/>
     </row>
@@ -2890,10 +2890,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D38" s="6">
         <v>17000</v>
@@ -2902,25 +2902,25 @@
         <v>19000</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G38" s="5">
         <v>500</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M38" s="5"/>
     </row>
@@ -2929,10 +2929,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D39" s="6">
         <v>17000</v>
@@ -2941,25 +2941,25 @@
         <v>19000</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G39" s="5">
         <v>500</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M39" s="5"/>
     </row>
@@ -2968,10 +2968,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D40" s="6">
         <v>17000</v>
@@ -2980,25 +2980,25 @@
         <v>19000</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G40" s="5">
         <v>500</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M40" s="5"/>
     </row>
@@ -3007,10 +3007,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D41" s="6">
         <v>22000</v>
@@ -3019,25 +3019,25 @@
         <v>25000</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G41" s="5">
         <v>500</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M41" s="5"/>
     </row>
@@ -3046,10 +3046,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D42" s="6">
         <v>35000</v>
@@ -3058,28 +3058,28 @@
         <v>50000</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G42" s="5">
         <v>200</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3087,10 +3087,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D43" s="6">
         <v>35000</v>
@@ -3099,28 +3099,28 @@
         <v>50000</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G43" s="5">
         <v>200</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3128,10 +3128,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D44" s="6">
         <v>135000</v>
@@ -3140,25 +3140,25 @@
         <v>150000</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G44" s="5">
         <v>100</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M44" s="5"/>
     </row>
@@ -3167,10 +3167,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D45" s="6">
         <v>185000</v>
@@ -3179,25 +3179,25 @@
         <v>200000</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G45" s="5">
         <v>75</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M45" s="5"/>
     </row>
@@ -3206,10 +3206,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D46" s="6">
         <v>15000</v>
@@ -3218,28 +3218,28 @@
         <v>25000</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G46" s="5">
         <v>100</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3247,10 +3247,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D47" s="6">
         <v>215000</v>
@@ -3259,25 +3259,25 @@
         <v>230000</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G47" s="11">
         <v>50</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M47" s="5"/>
     </row>
@@ -3286,10 +3286,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D48" s="6">
         <v>215000</v>
@@ -3298,25 +3298,25 @@
         <v>230000</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G48" s="5">
         <v>50</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M48" s="5"/>
     </row>
@@ -3325,10 +3325,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D49" s="6">
         <v>265000</v>
@@ -3337,25 +3337,25 @@
         <v>275000</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G49" s="5">
         <v>35</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M49" s="5"/>
     </row>
@@ -3364,10 +3364,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D50" s="6">
         <v>25000</v>
@@ -3376,28 +3376,28 @@
         <v>30000</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G50" s="5">
         <v>100</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3405,10 +3405,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D51" s="6">
         <v>245000</v>
@@ -3417,25 +3417,25 @@
         <v>260000</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G51" s="5">
         <v>20</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M51" s="5"/>
     </row>
@@ -3444,10 +3444,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D52" s="6">
         <v>175000</v>
@@ -3456,25 +3456,25 @@
         <v>185000</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G52" s="5">
         <v>20</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M52" s="5"/>
     </row>
@@ -3483,10 +3483,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D53" s="6">
         <v>445000</v>
@@ -3495,25 +3495,25 @@
         <v>450000</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G53" s="5">
         <v>23</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M53" s="5"/>
     </row>
@@ -3522,10 +3522,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D54" s="6">
         <v>105000</v>
@@ -3534,25 +3534,25 @@
         <v>120000</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G54" s="5">
         <v>50</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M54" s="5"/>
     </row>
@@ -3561,10 +3561,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D55" s="6">
         <v>220000</v>
@@ -3573,25 +3573,25 @@
         <v>230000</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G55" s="5">
         <v>80</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M55" s="5"/>
     </row>
@@ -3600,10 +3600,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D56" s="6">
         <v>260000</v>
@@ -3612,25 +3612,25 @@
         <v>275000</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G56" s="5">
         <v>21</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M56" s="5"/>
     </row>
@@ -3639,10 +3639,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D57" s="6">
         <v>280000</v>
@@ -3651,25 +3651,25 @@
         <v>295000</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G57" s="5">
         <v>21</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M57" s="5"/>
     </row>
@@ -3678,10 +3678,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D58" s="6">
         <v>35000</v>
@@ -3690,28 +3690,28 @@
         <v>40000</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G58" s="5">
         <v>150</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3719,10 +3719,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D59" s="6">
         <v>170000</v>
@@ -3731,25 +3731,25 @@
         <v>185000</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G59" s="5">
         <v>23</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M59" s="5"/>
     </row>
@@ -3758,10 +3758,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D60" s="6">
         <v>165000</v>
@@ -3770,25 +3770,25 @@
         <v>180000</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G60" s="5">
         <v>13</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M60" s="5"/>
     </row>
@@ -3797,10 +3797,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D61" s="6">
         <v>100000</v>
@@ -3809,25 +3809,25 @@
         <v>125000</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G61" s="5">
         <v>25</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M61" s="5"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D62" s="6">
         <v>20000</v>
@@ -3848,28 +3848,28 @@
         <v>30000</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G62" s="5">
         <v>100</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3877,10 +3877,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D63" s="6">
         <v>205000</v>
@@ -3889,25 +3889,25 @@
         <v>220000</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G63" s="5">
         <v>24</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M63" s="5"/>
     </row>
@@ -3916,10 +3916,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D64" s="6">
         <v>190000</v>
@@ -3928,25 +3928,25 @@
         <v>205000</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G64" s="5">
         <v>16</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M64" s="5"/>
     </row>
@@ -3955,10 +3955,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D65" s="6">
         <v>200000</v>
@@ -3967,25 +3967,25 @@
         <v>215000</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G65" s="5">
         <v>22</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M65" s="5"/>
     </row>
@@ -3994,10 +3994,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D66" s="6">
         <v>55000</v>
@@ -4006,25 +4006,25 @@
         <v>75000</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G66" s="5">
         <v>50</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M66" s="5"/>
     </row>
@@ -4033,10 +4033,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D67" s="6">
         <v>23000</v>
@@ -4045,28 +4045,28 @@
         <v>36000</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G67" s="5">
         <v>100</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4074,10 +4074,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D68" s="6">
         <v>26000</v>
@@ -4086,28 +4086,28 @@
         <v>38000</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G68" s="5">
         <v>80</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4115,10 +4115,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D69" s="6">
         <v>26000</v>
@@ -4127,28 +4127,28 @@
         <v>38000</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G69" s="5">
         <v>50</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4156,10 +4156,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D70" s="6">
         <v>28000</v>
@@ -4168,28 +4168,28 @@
         <v>40000</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G70" s="5">
         <v>90</v>
       </c>
       <c r="H70" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="L70" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4197,10 +4197,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D71" s="6">
         <v>85000</v>
@@ -4209,25 +4209,25 @@
         <v>100000</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G71" s="5">
         <v>100</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M71" s="5"/>
     </row>
@@ -4236,10 +4236,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D72" s="6">
         <v>36000</v>
@@ -4248,25 +4248,25 @@
         <v>55000</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G72" s="5">
         <v>120</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M72" s="5"/>
     </row>
@@ -4275,10 +4275,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D73" s="6">
         <v>36000</v>
@@ -4287,25 +4287,25 @@
         <v>55000</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G73" s="5">
         <v>110</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M73" s="5"/>
     </row>
@@ -4314,10 +4314,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D74" s="6">
         <v>36000</v>
@@ -4326,25 +4326,25 @@
         <v>55000</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G74" s="5">
         <v>90</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M74" s="5"/>
     </row>
@@ -4353,10 +4353,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D75" s="6">
         <v>215000</v>
@@ -4365,25 +4365,25 @@
         <v>230000</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G75" s="5">
         <v>50</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M75" s="5"/>
     </row>
@@ -4392,10 +4392,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D76" s="6">
         <v>210000</v>
@@ -4404,25 +4404,25 @@
         <v>225000</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G76" s="5">
         <v>60</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M76" s="5"/>
     </row>
@@ -4431,10 +4431,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D77" s="6">
         <v>235000</v>
@@ -4443,25 +4443,25 @@
         <v>255000</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G77" s="5">
         <v>30</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M77" s="5"/>
     </row>
@@ -4470,10 +4470,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D78" s="6">
         <v>235000</v>
@@ -4482,25 +4482,25 @@
         <v>255000</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G78" s="5">
         <v>35</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M78" s="5"/>
     </row>
@@ -4509,10 +4509,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D79" s="6">
         <v>95000</v>
@@ -4521,28 +4521,28 @@
         <v>105000</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G79" s="5">
         <v>500</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4550,10 +4550,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D80" s="6">
         <v>75000</v>
@@ -4562,25 +4562,25 @@
         <v>90000</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G80" s="5">
         <v>350</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M80" s="5"/>
     </row>
@@ -4589,10 +4589,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D81" s="6">
         <v>65000</v>
@@ -4601,25 +4601,25 @@
         <v>80000</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G81" s="5">
         <v>400</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M81" s="5"/>
     </row>
@@ -4628,10 +4628,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D82" s="6">
         <v>70000</v>
@@ -4640,28 +4640,28 @@
         <v>85000</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G82" s="5">
         <v>520</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4669,10 +4669,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D83" s="6">
         <v>175000</v>
@@ -4681,25 +4681,25 @@
         <v>185000</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G83" s="5">
         <v>40</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M83" s="5"/>
     </row>
@@ -4708,10 +4708,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D84" s="6">
         <v>175000</v>
@@ -4720,25 +4720,25 @@
         <v>185000</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G84" s="5">
         <v>40</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M84" s="5"/>
     </row>
@@ -4747,10 +4747,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D85" s="6">
         <v>175000</v>
@@ -4759,25 +4759,25 @@
         <v>185000</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G85" s="5">
         <v>40</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M85" s="5"/>
     </row>
@@ -4786,10 +4786,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D86" s="6">
         <v>255000</v>
@@ -4798,25 +4798,25 @@
         <v>275000</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G86" s="5">
         <v>30</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M86" s="5"/>
     </row>
@@ -4825,10 +4825,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D87" s="6">
         <v>165000</v>
@@ -4837,25 +4837,25 @@
         <v>175000</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G87" s="5">
         <v>50</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M87" s="5"/>
     </row>
@@ -4864,10 +4864,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D88" s="6">
         <v>165000</v>
@@ -4876,25 +4876,25 @@
         <v>175000</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G88" s="5">
         <v>40</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M88" s="5"/>
     </row>
@@ -4903,10 +4903,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D89" s="6">
         <v>165000</v>
@@ -4915,25 +4915,25 @@
         <v>175000</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G89" s="5">
         <v>50</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M89" s="5"/>
     </row>
@@ -4942,10 +4942,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D90" s="6">
         <v>245000</v>
@@ -4954,25 +4954,25 @@
         <v>260000</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G90" s="5">
         <v>30</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M90" s="5"/>
     </row>
@@ -4981,10 +4981,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D91" s="6">
         <v>150000</v>
@@ -4993,25 +4993,25 @@
         <v>160000</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G91" s="5">
         <v>30</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M91" s="5"/>
     </row>
@@ -5020,10 +5020,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D92" s="6">
         <v>150000</v>
@@ -5032,25 +5032,25 @@
         <v>160000</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G92" s="5">
         <v>30</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M92" s="5"/>
     </row>
@@ -5059,10 +5059,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D93" s="6">
         <v>135000</v>
@@ -5071,25 +5071,25 @@
         <v>150000</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G93" s="5">
         <v>50</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M93" s="5"/>
     </row>
@@ -5098,10 +5098,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D94" s="6">
         <v>150000</v>
@@ -5110,25 +5110,25 @@
         <v>160000</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G94" s="5">
         <v>30</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M94" s="5"/>
     </row>
@@ -5137,10 +5137,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D95" s="6">
         <v>135000</v>
@@ -5149,25 +5149,25 @@
         <v>150000</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G95" s="5">
         <v>50</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M95" s="5"/>
     </row>
@@ -5176,10 +5176,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D96" s="6">
         <v>235000</v>
@@ -5188,25 +5188,25 @@
         <v>255000</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G96" s="5">
         <v>30</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M96" s="5"/>
     </row>
@@ -5215,10 +5215,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D97" s="6">
         <v>200000</v>
@@ -5227,25 +5227,25 @@
         <v>210000</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G97" s="5">
         <v>50</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M97" s="5"/>
     </row>
@@ -5254,10 +5254,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D98" s="6">
         <v>170000</v>
@@ -5266,25 +5266,25 @@
         <v>185000</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G98" s="5">
         <v>30</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M98" s="5"/>
     </row>
@@ -5293,10 +5293,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D99" s="6">
         <v>220000</v>
@@ -5305,25 +5305,25 @@
         <v>235000</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G99" s="5">
         <v>25</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M99" s="5"/>
     </row>
@@ -5332,10 +5332,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D100" s="6">
         <v>200000</v>
@@ -5344,25 +5344,25 @@
         <v>210000</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G100" s="5">
         <v>24</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M100" s="5"/>
     </row>
@@ -5371,10 +5371,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D101" s="6">
         <v>240000</v>
@@ -5383,25 +5383,25 @@
         <v>255000</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G101" s="5">
         <v>24</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M101" s="5"/>
     </row>
